--- a/biology/Zoologie/Hydromedusa_maximiliani/Hydromedusa_maximiliani.xlsx
+++ b/biology/Zoologie/Hydromedusa_maximiliani/Hydromedusa_maximiliani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hydromedusa maximiliani est une espèce de tortue de la famille des Chelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hydromedusa maximiliani est une espèce de tortue de la famille des Chelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette tortue mesure de 10 à 20 cm pour un poids allant de 120 à 520 grammes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette tortue mesure de 10 à 20 cm pour un poids allant de 120 à 520 grammes.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre dans les États de Bahia, du Minas Gerais, d'Espírito Santo, de Rio de Janeiro et de São Paulo[1]. Sa présence dans le Goiás est incertaine.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre dans les États de Bahia, du Minas Gerais, d'Espírito Santo, de Rio de Janeiro et de São Paulo. Sa présence dans le Goiás est incertaine.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Maximilian zu Wied-Neuwied[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Maximilian zu Wied-Neuwied.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Mikan, 1820 : Delectus Florae et Faunae Brasiliensis. Vindobonae, Antonii Strauss (texte intégral).</t>
         </is>
